--- a/FinalGantt.xlsx
+++ b/FinalGantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\VERTEX42\TEMPLATES\TEMPLATE - MICROSOFT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1943176D-F744-4B2F-B015-5CB200A441E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4F1E617-5056-409F-84B1-A997ED099A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30150" yWindow="1065" windowWidth="22545" windowHeight="20205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <definedName name="vertex42_id" hidden="1">"simple-gantt-chart-AI.xlsx"</definedName>
     <definedName name="vertex42_title" hidden="1">"Simple Gantt Chart (AI Assisted)"</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="127">
   <si>
     <t>Contact Manager Project</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>Kevin, Sid</t>
-  </si>
-  <si>
-    <t>Jan 21st</t>
   </si>
   <si>
     <t>Setup: LAMP Stack on Digital Ocean</t>
@@ -1429,14 +1426,14 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -2199,8 +2196,8 @@
   <dimension ref="A1:BM85"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15"/>
@@ -2838,7 +2835,7 @@
     </row>
     <row r="7" spans="1:65" s="73" customFormat="1" ht="21">
       <c r="A7" s="10"/>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="100" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="114"/>
@@ -2914,16 +2911,14 @@
     </row>
     <row r="8" spans="1:65" s="73" customFormat="1" ht="21">
       <c r="A8" s="10"/>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="99" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="115"/>
       <c r="D8" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="98" t="s">
-        <v>15</v>
-      </c>
+      <c r="E8" s="98"/>
       <c r="F8" s="69"/>
       <c r="G8" s="70"/>
       <c r="H8" s="71"/>
@@ -2940,7 +2935,7 @@
       <c r="P8" s="72"/>
       <c r="Q8" s="72"/>
       <c r="R8" s="72"/>
-      <c r="S8" s="99"/>
+      <c r="S8" s="101"/>
       <c r="T8" s="72"/>
       <c r="U8" s="85"/>
       <c r="V8" s="85"/>
@@ -2991,14 +2986,14 @@
     <row r="9" spans="1:65" s="73" customFormat="1" ht="21">
       <c r="A9" s="10"/>
       <c r="B9" s="65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="66"/>
       <c r="D9" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="68" t="s">
         <v>17</v>
-      </c>
-      <c r="E9" s="68" t="s">
-        <v>18</v>
       </c>
       <c r="F9" s="69"/>
       <c r="G9" s="70"/>
@@ -3067,14 +3062,14 @@
     <row r="10" spans="1:65" s="73" customFormat="1" ht="21">
       <c r="A10" s="10"/>
       <c r="B10" s="65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="66"/>
       <c r="D10" s="67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="69"/>
       <c r="G10" s="70"/>
@@ -3143,14 +3138,14 @@
     <row r="11" spans="1:65" s="73" customFormat="1" ht="21">
       <c r="A11" s="10"/>
       <c r="B11" s="65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="66"/>
       <c r="D11" s="67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="69"/>
       <c r="G11" s="70"/>
@@ -3219,14 +3214,14 @@
     <row r="12" spans="1:65" s="73" customFormat="1" ht="21">
       <c r="A12" s="10"/>
       <c r="B12" s="65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="66"/>
       <c r="D12" s="67" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="69"/>
       <c r="G12" s="70"/>
@@ -3295,14 +3290,14 @@
     <row r="13" spans="1:65" s="73" customFormat="1" ht="21">
       <c r="A13" s="10"/>
       <c r="B13" s="65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="66"/>
       <c r="D13" s="67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="69"/>
       <c r="G13" s="70"/>
@@ -3371,14 +3366,14 @@
     <row r="14" spans="1:65" s="73" customFormat="1" ht="21">
       <c r="A14" s="10"/>
       <c r="B14" s="65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="66"/>
       <c r="D14" s="67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="69"/>
       <c r="G14" s="70"/>
@@ -3447,14 +3442,14 @@
     <row r="15" spans="1:65" s="73" customFormat="1" ht="21">
       <c r="A15" s="10"/>
       <c r="B15" s="102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="66"/>
       <c r="D15" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="68" t="s">
         <v>29</v>
-      </c>
-      <c r="E15" s="68" t="s">
-        <v>30</v>
       </c>
       <c r="F15" s="69"/>
       <c r="G15" s="70"/>
@@ -3523,11 +3518,11 @@
     <row r="16" spans="1:65" s="73" customFormat="1" ht="21">
       <c r="A16" s="10"/>
       <c r="B16" s="112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="116"/>
       <c r="D16" s="67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="68"/>
       <c r="F16" s="69"/>
@@ -3597,14 +3592,14 @@
     <row r="17" spans="1:65" s="73" customFormat="1" ht="21">
       <c r="A17" s="10"/>
       <c r="B17" s="65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="66"/>
       <c r="D17" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="68" t="s">
         <v>34</v>
-      </c>
-      <c r="E17" s="68" t="s">
-        <v>35</v>
       </c>
       <c r="F17" s="69"/>
       <c r="G17" s="70"/>
@@ -3673,14 +3668,14 @@
     <row r="18" spans="1:65" s="73" customFormat="1" ht="21">
       <c r="A18" s="10"/>
       <c r="B18" s="65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="66"/>
       <c r="D18" s="67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" s="69"/>
       <c r="G18" s="70"/>
@@ -3749,14 +3744,14 @@
     <row r="19" spans="1:65" s="73" customFormat="1" ht="21">
       <c r="A19" s="10"/>
       <c r="B19" s="65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="66"/>
       <c r="D19" s="67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="69"/>
       <c r="G19" s="70"/>
@@ -3825,14 +3820,14 @@
     <row r="20" spans="1:65" s="73" customFormat="1" ht="21">
       <c r="A20" s="10"/>
       <c r="B20" s="65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="66"/>
       <c r="D20" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="68" t="s">
         <v>40</v>
-      </c>
-      <c r="E20" s="68" t="s">
-        <v>41</v>
       </c>
       <c r="F20" s="69"/>
       <c r="G20" s="70"/>
@@ -3901,14 +3896,14 @@
     <row r="21" spans="1:65" s="73" customFormat="1" ht="21">
       <c r="A21" s="10"/>
       <c r="B21" s="65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="66"/>
       <c r="D21" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="68" t="s">
         <v>43</v>
-      </c>
-      <c r="E21" s="68" t="s">
-        <v>44</v>
       </c>
       <c r="F21" s="69"/>
       <c r="G21" s="70"/>
@@ -3977,14 +3972,14 @@
     <row r="22" spans="1:65" s="73" customFormat="1" ht="21">
       <c r="A22" s="10"/>
       <c r="B22" s="65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="66"/>
       <c r="D22" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="68" t="s">
         <v>43</v>
-      </c>
-      <c r="E22" s="68" t="s">
-        <v>44</v>
       </c>
       <c r="F22" s="69"/>
       <c r="G22" s="70"/>
@@ -4053,14 +4048,14 @@
     <row r="23" spans="1:65" s="73" customFormat="1" ht="21">
       <c r="A23" s="10"/>
       <c r="B23" s="65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="66"/>
       <c r="D23" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="68" t="s">
         <v>47</v>
-      </c>
-      <c r="E23" s="68" t="s">
-        <v>48</v>
       </c>
       <c r="F23" s="69"/>
       <c r="G23" s="70"/>
@@ -4199,11 +4194,11 @@
     <row r="25" spans="1:65" s="73" customFormat="1" ht="21">
       <c r="A25" s="10"/>
       <c r="B25" s="107" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="117"/>
       <c r="D25" s="67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" s="68"/>
       <c r="F25" s="69"/>
@@ -4273,14 +4268,14 @@
     <row r="26" spans="1:65" s="73" customFormat="1" ht="21">
       <c r="A26" s="10"/>
       <c r="B26" s="65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="66"/>
       <c r="D26" s="67" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F26" s="69"/>
       <c r="G26" s="70"/>
@@ -4349,14 +4344,14 @@
     <row r="27" spans="1:65" s="73" customFormat="1" ht="21">
       <c r="A27" s="10"/>
       <c r="B27" s="65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="66"/>
       <c r="D27" s="67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" s="68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F27" s="69"/>
       <c r="G27" s="70"/>
@@ -4425,14 +4420,14 @@
     <row r="28" spans="1:65" s="73" customFormat="1" ht="21">
       <c r="A28" s="10"/>
       <c r="B28" s="65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="66"/>
       <c r="D28" s="67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E28" s="68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F28" s="69"/>
       <c r="G28" s="70"/>
@@ -4501,14 +4496,14 @@
     <row r="29" spans="1:65" s="73" customFormat="1" ht="21">
       <c r="A29" s="10"/>
       <c r="B29" s="65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" s="66"/>
       <c r="D29" s="67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" s="68" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F29" s="69"/>
       <c r="G29" s="70"/>
@@ -4577,14 +4572,14 @@
     <row r="30" spans="1:65" s="73" customFormat="1" ht="21">
       <c r="A30" s="10"/>
       <c r="B30" s="65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="66"/>
       <c r="D30" s="67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30" s="68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30" s="69"/>
       <c r="G30" s="70"/>
@@ -4723,7 +4718,7 @@
     <row r="32" spans="1:65" s="73" customFormat="1" ht="21">
       <c r="A32" s="10"/>
       <c r="B32" s="109" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" s="118"/>
       <c r="D32" s="67"/>
@@ -4795,14 +4790,14 @@
     <row r="33" spans="1:65" s="73" customFormat="1" ht="21">
       <c r="A33" s="10"/>
       <c r="B33" s="65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="66"/>
       <c r="D33" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="98" t="s">
         <v>61</v>
-      </c>
-      <c r="E33" s="98" t="s">
-        <v>62</v>
       </c>
       <c r="F33" s="69"/>
       <c r="G33" s="70"/>
@@ -4871,14 +4866,14 @@
     <row r="34" spans="1:65" s="73" customFormat="1" ht="21">
       <c r="A34" s="10"/>
       <c r="B34" s="65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C34" s="66"/>
       <c r="D34" s="67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E34" s="68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F34" s="69"/>
       <c r="G34" s="70"/>
@@ -4947,14 +4942,14 @@
     <row r="35" spans="1:65" s="73" customFormat="1" ht="21">
       <c r="A35" s="10"/>
       <c r="B35" s="65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C35" s="66"/>
       <c r="D35" s="67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E35" s="68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F35" s="69"/>
       <c r="G35" s="70"/>
@@ -5023,14 +5018,14 @@
     <row r="36" spans="1:65" s="73" customFormat="1" ht="21">
       <c r="A36" s="10"/>
       <c r="B36" s="65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C36" s="66"/>
       <c r="D36" s="67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E36" s="68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F36" s="69"/>
       <c r="G36" s="70"/>
@@ -5099,14 +5094,14 @@
     <row r="37" spans="1:65" s="73" customFormat="1" ht="21">
       <c r="A37" s="10"/>
       <c r="B37" s="108" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C37" s="66"/>
       <c r="D37" s="67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E37" s="123" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F37" s="69"/>
       <c r="G37" s="70"/>
@@ -8101,7 +8096,7 @@
     <row r="81" spans="1:65" s="73" customFormat="1" ht="21">
       <c r="A81" s="10"/>
       <c r="B81" s="74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C81" s="75"/>
       <c r="D81" s="76"/>
@@ -8176,7 +8171,7 @@
     </row>
     <row r="83" spans="1:65">
       <c r="B83" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -8186,14 +8181,14 @@
     </row>
     <row r="84" spans="1:65">
       <c r="B84" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C84" s="25"/>
       <c r="D84" s="9"/>
     </row>
     <row r="85" spans="1:65">
       <c r="B85" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C85" s="24"/>
     </row>
@@ -8343,25 +8338,25 @@
     <row r="1" spans="1:2" ht="30" hidden="1">
       <c r="A1" s="30"/>
       <c r="B1" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39">
       <c r="A2" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:2" ht="23.25">
       <c r="A3" s="50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="51"/>
     </row>
     <row r="4" spans="1:2" s="35" customFormat="1" ht="47.25">
       <c r="A4" s="33"/>
       <c r="B4" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="35" customFormat="1" ht="19.5">
@@ -8369,7 +8364,7 @@
     </row>
     <row r="6" spans="1:2" s="35" customFormat="1" ht="19.5">
       <c r="B6" s="52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="35" customFormat="1" ht="19.5">
@@ -8377,82 +8372,82 @@
     </row>
     <row r="8" spans="1:2" s="37" customFormat="1" ht="27" customHeight="1">
       <c r="A8" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="54" t="s">
         <v>80</v>
-      </c>
-      <c r="B8" s="54" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="35" customFormat="1" ht="19.5">
       <c r="A9" s="55"/>
       <c r="B9" s="56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75">
       <c r="A10" s="55"/>
       <c r="B10" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" customHeight="1">
       <c r="A11" s="55"/>
       <c r="B11" s="57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75">
       <c r="A12" s="55"/>
       <c r="B12" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" customHeight="1">
       <c r="A13" s="55"/>
       <c r="B13" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75">
       <c r="A14" s="55"/>
       <c r="B14" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="39" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="55"/>
       <c r="B15" s="58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75">
       <c r="A16" s="55"/>
       <c r="B16" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" customHeight="1">
       <c r="A17" s="55"/>
       <c r="B17" s="57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75">
       <c r="A18" s="55"/>
       <c r="B18" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" customHeight="1">
       <c r="A19" s="55"/>
       <c r="B19" s="57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75">
       <c r="A20" s="55"/>
       <c r="B20" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="39" customFormat="1" ht="30" customHeight="1">
@@ -8462,19 +8457,19 @@
     <row r="22" spans="1:3" ht="15.75">
       <c r="A22" s="55"/>
       <c r="B22" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="A23" s="55"/>
       <c r="B23" s="57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75">
       <c r="A24" s="55"/>
       <c r="B24" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="39" customFormat="1" ht="30" customHeight="1">
@@ -8484,7 +8479,7 @@
     <row r="26" spans="1:3" ht="15.75">
       <c r="A26" s="55"/>
       <c r="B26" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="39" customFormat="1" ht="30" customHeight="1">
@@ -8497,15 +8492,15 @@
     </row>
     <row r="29" spans="1:3" s="37" customFormat="1" ht="27" customHeight="1">
       <c r="A29" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="54" t="s">
         <v>98</v>
-      </c>
-      <c r="B29" s="54" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="152.44999999999999" customHeight="1">
       <c r="A30" s="60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B30" s="40" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10),FALSE,$B$37,AI_Rules,"Here are a few questions the user may have answered to give you more information",$B$10:$B$27,$B$39,$B$40,$B$41)</f>
@@ -8544,15 +8539,15 @@
     </row>
     <row r="32" spans="1:3" s="37" customFormat="1" ht="54" customHeight="1">
       <c r="A32" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="54" t="s">
         <v>101</v>
-      </c>
-      <c r="B32" s="54" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="348.75">
       <c r="A33" s="60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B33" s="40" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10),FALSE,$B$37,"Here are a few questions the user may have answered to give you more information",$B$10:$B$27,$B$39)</f>
@@ -8581,86 +8576,86 @@
     </row>
     <row r="35" spans="1:2" ht="23.25">
       <c r="A35" s="50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="51"/>
     </row>
     <row r="36" spans="1:2" ht="21">
       <c r="A36" s="43"/>
       <c r="B36" s="61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="44" customFormat="1" ht="195">
       <c r="A37" s="43"/>
       <c r="B37" s="62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="21">
       <c r="A38" s="43"/>
       <c r="B38" s="61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30">
       <c r="A39" s="43"/>
       <c r="B39" s="45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="44" customFormat="1" ht="30">
       <c r="A40" s="43"/>
       <c r="B40" s="45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="44" customFormat="1" ht="45">
       <c r="A41" s="43"/>
       <c r="B41" s="63" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="21">
       <c r="A42" s="43"/>
       <c r="B42" s="61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="30">
       <c r="A43" s="43"/>
       <c r="B43" s="43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="43"/>
       <c r="B44" s="43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="30">
       <c r="A45" s="43"/>
       <c r="B45" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="43"/>
       <c r="B46" s="46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="43"/>
       <c r="B47" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="43"/>
       <c r="B48" s="46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -8685,29 +8680,29 @@
     <row r="1" spans="2:3" ht="46.5" customHeight="1"/>
     <row r="2" spans="2:3" s="13" customFormat="1" ht="15.75">
       <c r="B2" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="12"/>
     </row>
     <row r="3" spans="2:3" s="15" customFormat="1" ht="13.5" customHeight="1">
       <c r="B3" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="14"/>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:3" s="16" customFormat="1" ht="26.25">
       <c r="B6" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="60">
       <c r="B7" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15">
@@ -8715,17 +8710,17 @@
     </row>
     <row r="9" spans="2:3" s="16" customFormat="1" ht="26.25">
       <c r="B9" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="60">
       <c r="B10" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="14.25">
       <c r="B11" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15">
@@ -8742,17 +8737,17 @@
     </row>
     <row r="15" spans="2:3" s="16" customFormat="1" ht="26.25">
       <c r="B15" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="30">
       <c r="B16" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="14.25">
       <c r="B17" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="15">
@@ -8760,12 +8755,12 @@
     </row>
     <row r="19" spans="2:2" s="16" customFormat="1" ht="26.25">
       <c r="B19" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="60">
       <c r="B20" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="15">
@@ -8773,7 +8768,7 @@
     </row>
     <row r="22" spans="2:2" ht="75">
       <c r="B22" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
